--- a/DDF/PNG Product/Navigation/Navigation.xlsx
+++ b/DDF/PNG Product/Navigation/Navigation.xlsx
@@ -198,7 +198,7 @@
     <t xml:space="preserve">Standard Question Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Masters;Survey;Master;Special Master;Standard Master</t>
+    <t xml:space="preserve">Masters;Survey;Master;Standard Master</t>
   </si>
   <si>
     <t xml:space="preserve">Standard Survey Configuration</t>
@@ -3222,8 +3222,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A125" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B139" activeCellId="0" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5344,7 +5344,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="38.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="73.69"/>
@@ -14618,7 +14618,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -14641,7 +14641,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
